--- a/Java/_Playground/NBA Yahli/NBA-Database/Excel_Tables/Players.xlsx
+++ b/Java/_Playground/NBA Yahli/NBA-Database/Excel_Tables/Players.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carissawood/Documents/PSU/CS586/grad-project/Excel_Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/Java/_Playground/NBA Yahli/NBA-Database/Excel_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB8442-7998-C744-BF17-4032A4245845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3B003-4980-9C4F-BB7C-C2B783BC1013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Players" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="551">
-  <si>
-    <t>Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="550">
   <si>
     <t>Name</t>
   </si>
@@ -1679,14 +1676,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -1836,36 +1828,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3027,69 +3016,70 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV544"/>
+  <dimension ref="A1:C543"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
-        <v>24</v>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3097,10 +3087,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3108,10 +3098,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3119,10 +3109,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3130,10 +3120,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3141,32 +3131,32 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C12" s="8">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3174,10 +3164,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3185,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
         <v>24</v>
@@ -3196,10 +3186,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3207,10 +3197,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="8">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3218,10 +3208,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3229,10 +3219,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="8">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3240,10 +3230,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C19" s="8">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3251,10 +3241,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3262,10 +3252,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="8">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3273,10 +3263,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C22" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3284,10 +3274,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3295,10 +3285,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" s="8">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3306,10 +3296,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3317,10 +3307,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3328,10 +3318,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3339,10 +3329,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3350,10 +3340,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C29" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3361,10 +3351,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3372,10 +3362,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="8">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3383,10 +3373,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C32" s="8">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3394,10 +3384,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3405,10 +3395,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3416,7 +3406,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="8">
         <v>29</v>
@@ -3427,10 +3417,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3438,10 +3428,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3449,10 +3439,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3460,10 +3450,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3471,10 +3461,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="8">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3482,10 +3472,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C41" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3493,10 +3483,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3504,7 +3494,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C43" s="8">
         <v>23</v>
@@ -3515,10 +3505,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C44" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3526,10 +3516,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3537,10 +3527,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3548,10 +3538,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3559,10 +3549,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3570,10 +3560,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3581,10 +3571,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C50" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3592,10 +3582,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3603,10 +3593,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3614,10 +3604,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C53" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3625,10 +3615,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C54" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3636,7 +3626,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="8">
         <v>25</v>
@@ -3647,10 +3637,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C56" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3658,10 +3648,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C57" s="8">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3669,10 +3659,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" s="8">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3680,10 +3670,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3691,10 +3681,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3702,10 +3692,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3713,10 +3703,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C62" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3724,10 +3714,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" s="8">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3735,21 +3725,21 @@
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C64" s="8">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C65" s="8">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3757,10 +3747,10 @@
         <v>73</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3768,10 +3758,10 @@
         <v>74</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67" s="8">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3779,10 +3769,10 @@
         <v>75</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C68" s="8">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3790,10 +3780,10 @@
         <v>76</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C69" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3801,10 +3791,10 @@
         <v>77</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C70" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3812,10 +3802,10 @@
         <v>78</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C71" s="8">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3823,10 +3813,10 @@
         <v>79</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C72" s="8">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3834,10 +3824,10 @@
         <v>80</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C73" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3845,10 +3835,10 @@
         <v>81</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3856,10 +3846,10 @@
         <v>82</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C75" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3867,10 +3857,10 @@
         <v>83</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C76" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3878,10 +3868,10 @@
         <v>84</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C77" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3889,10 +3879,10 @@
         <v>85</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C78" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3900,10 +3890,10 @@
         <v>86</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C79" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3911,10 +3901,10 @@
         <v>87</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3922,7 +3912,7 @@
         <v>88</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C81" s="8">
         <v>28</v>
@@ -3933,10 +3923,10 @@
         <v>89</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C82" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3944,10 +3934,10 @@
         <v>90</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C83" s="8">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3955,10 +3945,10 @@
         <v>91</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C84" s="8">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3966,21 +3956,21 @@
         <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C85" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C86" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3988,10 +3978,10 @@
         <v>95</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C87" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3999,10 +3989,10 @@
         <v>96</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" s="8">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4010,10 +4000,10 @@
         <v>97</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C89" s="8">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4021,10 +4011,10 @@
         <v>98</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4032,10 +4022,10 @@
         <v>99</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4043,10 +4033,10 @@
         <v>100</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C92" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4054,10 +4044,10 @@
         <v>101</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C93" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4065,10 +4055,10 @@
         <v>102</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C94" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4076,10 +4066,10 @@
         <v>103</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C95" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4087,10 +4077,10 @@
         <v>104</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C96" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4098,10 +4088,10 @@
         <v>105</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C97" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4109,10 +4099,10 @@
         <v>106</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4120,10 +4110,10 @@
         <v>107</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4131,10 +4121,10 @@
         <v>108</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4142,10 +4132,10 @@
         <v>109</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4153,10 +4143,10 @@
         <v>110</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4164,7 +4154,7 @@
         <v>111</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" s="8">
         <v>20</v>
@@ -4175,10 +4165,10 @@
         <v>112</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C104" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4186,10 +4176,10 @@
         <v>113</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C105" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4197,10 +4187,10 @@
         <v>114</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C106" s="8">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4208,10 +4198,10 @@
         <v>115</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C107" s="8">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4219,10 +4209,10 @@
         <v>116</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C108" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4230,10 +4220,10 @@
         <v>117</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C109" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4241,10 +4231,10 @@
         <v>118</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C110" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4252,10 +4242,10 @@
         <v>119</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4263,10 +4253,10 @@
         <v>120</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4274,10 +4264,10 @@
         <v>121</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4285,7 +4275,7 @@
         <v>122</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C114" s="8">
         <v>27</v>
@@ -4296,10 +4286,10 @@
         <v>123</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C115" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4307,10 +4297,10 @@
         <v>124</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C116" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4318,10 +4308,10 @@
         <v>125</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C117" s="8">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4329,10 +4319,10 @@
         <v>126</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4340,10 +4330,10 @@
         <v>127</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C119" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4351,10 +4341,10 @@
         <v>128</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4362,10 +4352,10 @@
         <v>129</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C121" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4373,10 +4363,10 @@
         <v>130</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C122" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4384,10 +4374,10 @@
         <v>131</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4395,10 +4385,10 @@
         <v>132</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4406,10 +4396,10 @@
         <v>133</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4417,7 +4407,7 @@
         <v>134</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126" s="8">
         <v>28</v>
@@ -4428,10 +4418,10 @@
         <v>135</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C127" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4439,10 +4429,10 @@
         <v>136</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C128" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4450,10 +4440,10 @@
         <v>137</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4461,10 +4451,10 @@
         <v>138</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C130" s="8">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4472,10 +4462,10 @@
         <v>139</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C131" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4483,10 +4473,10 @@
         <v>140</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" s="8">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4494,10 +4484,10 @@
         <v>141</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4505,10 +4495,10 @@
         <v>142</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C134" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4516,10 +4506,10 @@
         <v>143</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C135" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4527,10 +4517,10 @@
         <v>144</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4538,10 +4528,10 @@
         <v>145</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4549,10 +4539,10 @@
         <v>146</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C138" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4560,10 +4550,10 @@
         <v>147</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C139" s="8">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4571,10 +4561,10 @@
         <v>148</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C140" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,10 +4572,10 @@
         <v>149</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C141" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4593,10 +4583,10 @@
         <v>150</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C142" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4604,10 +4594,10 @@
         <v>151</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C143" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4615,10 +4605,10 @@
         <v>152</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C144" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4626,10 +4616,10 @@
         <v>153</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C145" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4637,10 +4627,10 @@
         <v>154</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C146" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4648,10 +4638,10 @@
         <v>155</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C147" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4659,10 +4649,10 @@
         <v>156</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4670,10 +4660,10 @@
         <v>157</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C149" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4681,10 +4671,10 @@
         <v>158</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C150" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4692,10 +4682,10 @@
         <v>159</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C151" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4703,10 +4693,10 @@
         <v>160</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C152" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4714,10 +4704,10 @@
         <v>161</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C153" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4725,10 +4715,10 @@
         <v>162</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C154" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4736,10 +4726,10 @@
         <v>163</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C155" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4747,10 +4737,10 @@
         <v>164</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4758,10 +4748,10 @@
         <v>165</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C157" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4769,10 +4759,10 @@
         <v>166</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C158" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4780,10 +4770,10 @@
         <v>167</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C159" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4791,10 +4781,10 @@
         <v>168</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C160" s="8">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4802,10 +4792,10 @@
         <v>169</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4813,7 +4803,7 @@
         <v>170</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" s="8">
         <v>24</v>
@@ -4824,7 +4814,7 @@
         <v>171</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C163" s="8">
         <v>24</v>
@@ -4835,10 +4825,10 @@
         <v>172</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C164" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4846,10 +4836,10 @@
         <v>173</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C165" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4857,10 +4847,10 @@
         <v>174</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C166" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4868,10 +4858,10 @@
         <v>175</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C167" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4879,10 +4869,10 @@
         <v>176</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C168" s="8">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4890,10 +4880,10 @@
         <v>177</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C169" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4901,10 +4891,10 @@
         <v>178</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C170" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4912,10 +4902,10 @@
         <v>179</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" s="8">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4923,10 +4913,10 @@
         <v>180</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C172" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4934,10 +4924,10 @@
         <v>181</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C173" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4945,10 +4935,10 @@
         <v>182</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C174" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4956,10 +4946,10 @@
         <v>183</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C175" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4967,10 +4957,10 @@
         <v>184</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C176" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4978,10 +4968,10 @@
         <v>185</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C177" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4989,10 +4979,10 @@
         <v>186</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C178" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5000,10 +4990,10 @@
         <v>187</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" s="8">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5011,10 +5001,10 @@
         <v>188</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C180" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5022,10 +5012,10 @@
         <v>189</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C181" s="8">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5033,10 +5023,10 @@
         <v>190</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5044,10 +5034,10 @@
         <v>191</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C183" s="8">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5055,10 +5045,10 @@
         <v>192</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5066,10 +5056,10 @@
         <v>193</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C185" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5077,10 +5067,10 @@
         <v>194</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C186" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5088,10 +5078,10 @@
         <v>195</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C187" s="8">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5099,10 +5089,10 @@
         <v>196</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5110,10 +5100,10 @@
         <v>197</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C189" s="8">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5121,10 +5111,10 @@
         <v>198</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5132,10 +5122,10 @@
         <v>199</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5143,10 +5133,10 @@
         <v>200</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5154,10 +5144,10 @@
         <v>201</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C193" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5165,10 +5155,10 @@
         <v>202</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5176,10 +5166,10 @@
         <v>203</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5187,10 +5177,10 @@
         <v>204</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C196" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5198,7 +5188,7 @@
         <v>205</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C197" s="8">
         <v>24</v>
@@ -5209,10 +5199,10 @@
         <v>206</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C198" s="8">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5220,10 +5210,10 @@
         <v>207</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C199" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5231,10 +5221,10 @@
         <v>208</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5242,10 +5232,10 @@
         <v>209</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5253,10 +5243,10 @@
         <v>210</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C202" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5264,7 +5254,7 @@
         <v>211</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C203" s="8">
         <v>23</v>
@@ -5275,10 +5265,10 @@
         <v>212</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C204" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5286,10 +5276,10 @@
         <v>213</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C205" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5297,10 +5287,10 @@
         <v>214</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" s="8">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5308,10 +5298,10 @@
         <v>215</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C207" s="8">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5319,10 +5309,10 @@
         <v>216</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C208" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5330,10 +5320,10 @@
         <v>217</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C209" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5341,10 +5331,10 @@
         <v>218</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C210" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5352,10 +5342,10 @@
         <v>219</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C211" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5363,10 +5353,10 @@
         <v>220</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C212" s="8">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5374,10 +5364,10 @@
         <v>221</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5385,10 +5375,10 @@
         <v>222</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C214" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5396,10 +5386,10 @@
         <v>223</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C215" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5407,10 +5397,10 @@
         <v>224</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C216" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5418,10 +5408,10 @@
         <v>225</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5429,10 +5419,10 @@
         <v>226</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C218" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5440,10 +5430,10 @@
         <v>227</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C219" s="8">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5451,10 +5441,10 @@
         <v>228</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C220" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5462,10 +5452,10 @@
         <v>229</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C221" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5473,10 +5463,10 @@
         <v>230</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5484,10 +5474,10 @@
         <v>231</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C223" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5495,10 +5485,10 @@
         <v>232</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C224" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5506,10 +5496,10 @@
         <v>233</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C225" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5517,10 +5507,10 @@
         <v>234</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C226" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5528,10 +5518,10 @@
         <v>235</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5539,10 +5529,10 @@
         <v>236</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5550,10 +5540,10 @@
         <v>237</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C229" s="8">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5561,10 +5551,10 @@
         <v>238</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5572,10 +5562,10 @@
         <v>239</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C231" s="8">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5583,10 +5573,10 @@
         <v>240</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C232" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5594,10 +5584,10 @@
         <v>241</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5605,10 +5595,10 @@
         <v>242</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5616,10 +5606,10 @@
         <v>243</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C235" s="8">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5627,10 +5617,10 @@
         <v>244</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C236" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5638,7 +5628,7 @@
         <v>245</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C237" s="8">
         <v>30</v>
@@ -5649,10 +5639,10 @@
         <v>246</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C238" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5660,10 +5650,10 @@
         <v>247</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C239" s="8">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5671,10 +5661,10 @@
         <v>248</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C240" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5682,10 +5672,10 @@
         <v>249</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C241" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5693,10 +5683,10 @@
         <v>250</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C242" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5704,10 +5694,10 @@
         <v>251</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C243" s="8">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5715,10 +5705,10 @@
         <v>252</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C244" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5726,10 +5716,10 @@
         <v>253</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C245" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5737,10 +5727,10 @@
         <v>254</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C246" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5748,10 +5738,10 @@
         <v>255</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C247" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5759,10 +5749,10 @@
         <v>256</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C248" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5770,10 +5760,10 @@
         <v>257</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C249" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5781,10 +5771,10 @@
         <v>258</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C250" s="8">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5792,10 +5782,10 @@
         <v>259</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C251" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5803,10 +5793,10 @@
         <v>260</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C252" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5814,10 +5804,10 @@
         <v>261</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C253" s="8">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5825,10 +5815,10 @@
         <v>262</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C254" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5836,7 +5826,7 @@
         <v>263</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" s="8">
         <v>30</v>
@@ -5847,10 +5837,10 @@
         <v>264</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C256" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5858,10 +5848,10 @@
         <v>265</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5869,10 +5859,10 @@
         <v>266</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C258" s="8">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5880,10 +5870,10 @@
         <v>267</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C259" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5891,10 +5881,10 @@
         <v>268</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C260" s="8">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5902,10 +5892,10 @@
         <v>269</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C261" s="8">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5913,10 +5903,10 @@
         <v>270</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C262" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5924,10 +5914,10 @@
         <v>271</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C263" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5935,10 +5925,10 @@
         <v>272</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C264" s="8">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5946,7 +5936,7 @@
         <v>273</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C265" s="8">
         <v>22</v>
@@ -5957,10 +5947,10 @@
         <v>274</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C266" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5968,10 +5958,10 @@
         <v>275</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C267" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5979,10 +5969,10 @@
         <v>276</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C268" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5990,10 +5980,10 @@
         <v>277</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C269" s="8">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6001,10 +5991,10 @@
         <v>278</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C270" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6012,10 +6002,10 @@
         <v>279</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C271" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6023,10 +6013,10 @@
         <v>280</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C272" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6034,10 +6024,10 @@
         <v>281</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C273" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6045,10 +6035,10 @@
         <v>282</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C274" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6056,10 +6046,10 @@
         <v>283</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C275" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6067,10 +6057,10 @@
         <v>284</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C276" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6078,10 +6068,10 @@
         <v>285</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C277" s="8">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6089,10 +6079,10 @@
         <v>286</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C278" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6100,10 +6090,10 @@
         <v>287</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C279" s="8">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6111,10 +6101,10 @@
         <v>288</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C280" s="8">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6122,10 +6112,10 @@
         <v>289</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C281" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6133,10 +6123,10 @@
         <v>290</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C282" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6144,10 +6134,10 @@
         <v>291</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C283" s="8">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6155,10 +6145,10 @@
         <v>292</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C284" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6166,7 +6156,7 @@
         <v>293</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C285" s="8">
         <v>25</v>
@@ -6177,10 +6167,10 @@
         <v>294</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C286" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6188,10 +6178,10 @@
         <v>295</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C287" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6199,10 +6189,10 @@
         <v>296</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C288" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6210,10 +6200,10 @@
         <v>297</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C289" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6221,10 +6211,10 @@
         <v>298</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C290" s="8">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6232,10 +6222,10 @@
         <v>299</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C291" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6243,7 +6233,7 @@
         <v>300</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C292" s="8">
         <v>25</v>
@@ -6254,10 +6244,10 @@
         <v>301</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C293" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6265,10 +6255,10 @@
         <v>302</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C294" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6276,10 +6266,10 @@
         <v>303</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C295" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6287,10 +6277,10 @@
         <v>304</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C296" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6298,10 +6288,10 @@
         <v>305</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C297" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6309,10 +6299,10 @@
         <v>306</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C298" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6320,10 +6310,10 @@
         <v>307</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C299" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6331,10 +6321,10 @@
         <v>308</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C300" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6342,10 +6332,10 @@
         <v>309</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C301" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6353,10 +6343,10 @@
         <v>310</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C302" s="8">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6364,10 +6354,10 @@
         <v>311</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C303" s="8">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6375,7 +6365,7 @@
         <v>312</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C304" s="8">
         <v>29</v>
@@ -6386,7 +6376,7 @@
         <v>313</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C305" s="8">
         <v>29</v>
@@ -6397,10 +6387,10 @@
         <v>314</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C306" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6408,10 +6398,10 @@
         <v>315</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C307" s="8">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6419,10 +6409,10 @@
         <v>316</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C308" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6430,10 +6420,10 @@
         <v>317</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C309" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6441,10 +6431,10 @@
         <v>318</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C310" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6452,10 +6442,10 @@
         <v>319</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C311" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6463,10 +6453,10 @@
         <v>320</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C312" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6474,10 +6464,10 @@
         <v>321</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C313" s="8">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6485,10 +6475,10 @@
         <v>322</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C314" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6496,10 +6486,10 @@
         <v>323</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C315" s="8">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6507,10 +6497,10 @@
         <v>324</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C316" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6518,7 +6508,7 @@
         <v>325</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C317" s="8">
         <v>23</v>
@@ -6529,10 +6519,10 @@
         <v>326</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C318" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6540,10 +6530,10 @@
         <v>327</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C319" s="8">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6551,7 +6541,7 @@
         <v>328</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C320" s="8">
         <v>31</v>
@@ -6562,10 +6552,10 @@
         <v>329</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C321" s="8">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6573,10 +6563,10 @@
         <v>330</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C322" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6584,10 +6574,10 @@
         <v>331</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C323" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6595,10 +6585,10 @@
         <v>332</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C324" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6606,10 +6596,10 @@
         <v>333</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C325" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6617,10 +6607,10 @@
         <v>334</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C326" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6628,10 +6618,10 @@
         <v>335</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C327" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6639,10 +6629,10 @@
         <v>336</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C328" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6650,10 +6640,10 @@
         <v>337</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C329" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6661,10 +6651,10 @@
         <v>338</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C330" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6672,10 +6662,10 @@
         <v>339</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C331" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6683,10 +6673,10 @@
         <v>340</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C332" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6694,10 +6684,10 @@
         <v>341</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C333" s="8">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6705,7 +6695,7 @@
         <v>342</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C334" s="8">
         <v>30</v>
@@ -6716,10 +6706,10 @@
         <v>343</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C335" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6727,10 +6717,10 @@
         <v>344</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C336" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6738,10 +6728,10 @@
         <v>345</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C337" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6749,10 +6739,10 @@
         <v>346</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C338" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6760,10 +6750,10 @@
         <v>347</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C339" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6771,10 +6761,10 @@
         <v>348</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C340" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6782,10 +6772,10 @@
         <v>349</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C341" s="8">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6793,10 +6783,10 @@
         <v>350</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C342" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6804,10 +6794,10 @@
         <v>351</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C343" s="8">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6815,10 +6805,10 @@
         <v>352</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C344" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6826,10 +6816,10 @@
         <v>353</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C345" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6837,10 +6827,10 @@
         <v>354</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C346" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6848,10 +6838,10 @@
         <v>355</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C347" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6859,10 +6849,10 @@
         <v>356</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C348" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6870,10 +6860,10 @@
         <v>357</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C349" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6881,10 +6871,10 @@
         <v>358</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C350" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6892,10 +6882,10 @@
         <v>359</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C351" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6903,10 +6893,10 @@
         <v>360</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C352" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6914,10 +6904,10 @@
         <v>361</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C353" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6925,7 +6915,7 @@
         <v>362</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C354" s="8">
         <v>28</v>
@@ -6936,10 +6926,10 @@
         <v>363</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C355" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6947,7 +6937,7 @@
         <v>364</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C356" s="8">
         <v>22</v>
@@ -6958,10 +6948,10 @@
         <v>365</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C357" s="8">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6969,10 +6959,10 @@
         <v>366</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C358" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6980,10 +6970,10 @@
         <v>367</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C359" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6991,7 +6981,7 @@
         <v>368</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C360" s="8">
         <v>25</v>
@@ -7002,10 +6992,10 @@
         <v>369</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C361" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7013,10 +7003,10 @@
         <v>370</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C362" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7024,10 +7014,10 @@
         <v>371</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C363" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7035,10 +7025,10 @@
         <v>372</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C364" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7046,10 +7036,10 @@
         <v>373</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C365" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7057,10 +7047,10 @@
         <v>374</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C366" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7068,10 +7058,10 @@
         <v>375</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C367" s="8">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7079,10 +7069,10 @@
         <v>376</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C368" s="8">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7090,10 +7080,10 @@
         <v>377</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C369" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7101,10 +7091,10 @@
         <v>378</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C370" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7112,10 +7102,10 @@
         <v>379</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C371" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7123,10 +7113,10 @@
         <v>380</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C372" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7134,10 +7124,10 @@
         <v>381</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C373" s="8">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7145,10 +7135,10 @@
         <v>382</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C374" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7156,10 +7146,10 @@
         <v>383</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C375" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7167,10 +7157,10 @@
         <v>384</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C376" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7178,10 +7168,10 @@
         <v>385</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C377" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7189,7 +7179,7 @@
         <v>386</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C378" s="8">
         <v>24</v>
@@ -7200,10 +7190,10 @@
         <v>387</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C379" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7211,10 +7201,10 @@
         <v>388</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C380" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7222,10 +7212,10 @@
         <v>389</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C381" s="8">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7233,10 +7223,10 @@
         <v>390</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C382" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7244,10 +7234,10 @@
         <v>391</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C383" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7255,10 +7245,10 @@
         <v>392</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C384" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7266,10 +7256,10 @@
         <v>393</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C385" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7277,10 +7267,10 @@
         <v>394</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C386" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7288,7 +7278,7 @@
         <v>395</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C387" s="8">
         <v>22</v>
@@ -7299,10 +7289,10 @@
         <v>396</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C388" s="8">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7310,10 +7300,10 @@
         <v>397</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C389" s="8">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7321,10 +7311,10 @@
         <v>398</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C390" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7332,10 +7322,10 @@
         <v>399</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C391" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7343,10 +7333,10 @@
         <v>400</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C392" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7354,10 +7344,10 @@
         <v>401</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C393" s="8">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7365,10 +7355,10 @@
         <v>402</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C394" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7376,10 +7366,10 @@
         <v>403</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C395" s="8">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7387,10 +7377,10 @@
         <v>404</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C396" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7398,10 +7388,10 @@
         <v>405</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C397" s="8">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7409,10 +7399,10 @@
         <v>406</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C398" s="8">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7420,10 +7410,10 @@
         <v>407</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C399" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7431,7 +7421,7 @@
         <v>408</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C400" s="8">
         <v>23</v>
@@ -7442,10 +7432,10 @@
         <v>409</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C401" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7453,10 +7443,10 @@
         <v>410</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C402" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7464,10 +7454,10 @@
         <v>411</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C403" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7475,10 +7465,10 @@
         <v>412</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C404" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7486,10 +7476,10 @@
         <v>413</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C405" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7497,10 +7487,10 @@
         <v>414</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C406" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7508,10 +7498,10 @@
         <v>415</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C407" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7519,10 +7509,10 @@
         <v>416</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C408" s="8">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7530,10 +7520,10 @@
         <v>417</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C409" s="8">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7541,10 +7531,10 @@
         <v>418</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C410" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7552,10 +7542,10 @@
         <v>419</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C411" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7563,7 +7553,7 @@
         <v>420</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C412" s="8">
         <v>22</v>
@@ -7574,10 +7564,10 @@
         <v>421</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C413" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7585,10 +7575,10 @@
         <v>422</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C414" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7596,7 +7586,7 @@
         <v>423</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C415" s="8">
         <v>24</v>
@@ -7607,10 +7597,10 @@
         <v>424</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C416" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7618,10 +7608,10 @@
         <v>425</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C417" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7629,10 +7619,10 @@
         <v>426</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C418" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7640,10 +7630,10 @@
         <v>427</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C419" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7651,10 +7641,10 @@
         <v>428</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C420" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7662,10 +7652,10 @@
         <v>429</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C421" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7673,10 +7663,10 @@
         <v>430</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C422" s="8">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7684,10 +7674,10 @@
         <v>431</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C423" s="8">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7695,10 +7685,10 @@
         <v>432</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C424" s="8">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7706,10 +7696,10 @@
         <v>433</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C425" s="8">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7717,10 +7707,10 @@
         <v>434</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C426" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7728,10 +7718,10 @@
         <v>435</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C427" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7739,10 +7729,10 @@
         <v>436</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C428" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7750,10 +7740,10 @@
         <v>437</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C429" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7761,10 +7751,10 @@
         <v>438</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C430" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7772,10 +7762,10 @@
         <v>439</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C431" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7783,10 +7773,10 @@
         <v>440</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C432" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7794,10 +7784,10 @@
         <v>441</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C433" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7805,10 +7795,10 @@
         <v>442</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C434" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7816,10 +7806,10 @@
         <v>443</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C435" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7827,10 +7817,10 @@
         <v>444</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C436" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7838,10 +7828,10 @@
         <v>445</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C437" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7849,10 +7839,10 @@
         <v>446</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C438" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7860,7 +7850,7 @@
         <v>447</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C439" s="8">
         <v>21</v>
@@ -7871,10 +7861,10 @@
         <v>448</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C440" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7882,10 +7872,10 @@
         <v>449</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C441" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7893,10 +7883,10 @@
         <v>450</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C442" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7904,10 +7894,10 @@
         <v>451</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C443" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7915,10 +7905,10 @@
         <v>452</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C444" s="8">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7926,10 +7916,10 @@
         <v>453</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C445" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7937,10 +7927,10 @@
         <v>454</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C446" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7948,10 +7938,10 @@
         <v>455</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C447" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7959,10 +7949,10 @@
         <v>456</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C448" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7970,10 +7960,10 @@
         <v>457</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C449" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7981,10 +7971,10 @@
         <v>458</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C450" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -7992,10 +7982,10 @@
         <v>459</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C451" s="8">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8003,10 +7993,10 @@
         <v>460</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C452" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8014,10 +8004,10 @@
         <v>461</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C453" s="8">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8025,10 +8015,10 @@
         <v>462</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C454" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8036,10 +8026,10 @@
         <v>463</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C455" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8047,10 +8037,10 @@
         <v>464</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C456" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8058,10 +8048,10 @@
         <v>465</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C457" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8069,10 +8059,10 @@
         <v>466</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C458" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8080,10 +8070,10 @@
         <v>467</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C459" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8091,10 +8081,10 @@
         <v>468</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C460" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8102,10 +8092,10 @@
         <v>469</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C461" s="8">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8113,10 +8103,10 @@
         <v>470</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C462" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8124,10 +8114,10 @@
         <v>471</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C463" s="8">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8135,10 +8125,10 @@
         <v>472</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C464" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8146,10 +8136,10 @@
         <v>473</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C465" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8157,10 +8147,10 @@
         <v>474</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C466" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8168,10 +8158,10 @@
         <v>475</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C467" s="8">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8179,10 +8169,10 @@
         <v>476</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C468" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8190,10 +8180,10 @@
         <v>477</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C469" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8201,10 +8191,10 @@
         <v>478</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C470" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8212,10 +8202,10 @@
         <v>479</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C471" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8223,10 +8213,10 @@
         <v>480</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C472" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8234,10 +8224,10 @@
         <v>481</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C473" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8245,10 +8235,10 @@
         <v>482</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C474" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8256,10 +8246,10 @@
         <v>483</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C475" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8267,10 +8257,10 @@
         <v>484</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C476" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8278,10 +8268,10 @@
         <v>485</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C477" s="8">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8289,10 +8279,10 @@
         <v>486</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C478" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8300,10 +8290,10 @@
         <v>487</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C479" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8311,10 +8301,10 @@
         <v>488</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C480" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8322,10 +8312,10 @@
         <v>489</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C481" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8333,10 +8323,10 @@
         <v>490</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C482" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8344,10 +8334,10 @@
         <v>491</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C483" s="8">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8355,10 +8345,10 @@
         <v>492</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C484" s="8">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8366,10 +8356,10 @@
         <v>493</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C485" s="8">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8377,10 +8367,10 @@
         <v>494</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C486" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8388,10 +8378,10 @@
         <v>495</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C487" s="8">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8399,10 +8389,10 @@
         <v>496</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C488" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8410,10 +8400,10 @@
         <v>497</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C489" s="8">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8421,10 +8411,10 @@
         <v>498</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C490" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8432,10 +8422,10 @@
         <v>499</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C491" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8443,10 +8433,10 @@
         <v>500</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C492" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8454,10 +8444,10 @@
         <v>501</v>
       </c>
       <c r="B493" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C493" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8465,10 +8455,10 @@
         <v>502</v>
       </c>
       <c r="B494" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C494" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8476,10 +8466,10 @@
         <v>503</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C495" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8487,10 +8477,10 @@
         <v>504</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C496" s="8">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8498,10 +8488,10 @@
         <v>505</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C497" s="8">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8509,10 +8499,10 @@
         <v>506</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C498" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8520,7 +8510,7 @@
         <v>507</v>
       </c>
       <c r="B499" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C499" s="8">
         <v>27</v>
@@ -8531,10 +8521,10 @@
         <v>508</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C500" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8542,7 +8532,7 @@
         <v>509</v>
       </c>
       <c r="B501" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C501" s="8">
         <v>23</v>
@@ -8553,10 +8543,10 @@
         <v>510</v>
       </c>
       <c r="B502" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C502" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8564,10 +8554,10 @@
         <v>511</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C503" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8575,7 +8565,7 @@
         <v>512</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C504" s="8">
         <v>24</v>
@@ -8586,10 +8576,10 @@
         <v>513</v>
       </c>
       <c r="B505" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C505" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8597,10 +8587,10 @@
         <v>514</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C506" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8608,10 +8598,10 @@
         <v>515</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C507" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8619,10 +8609,10 @@
         <v>516</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C508" s="8">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8630,10 +8620,10 @@
         <v>517</v>
       </c>
       <c r="B509" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C509" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8641,10 +8631,10 @@
         <v>518</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C510" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8652,10 +8642,10 @@
         <v>519</v>
       </c>
       <c r="B511" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C511" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8663,10 +8653,10 @@
         <v>520</v>
       </c>
       <c r="B512" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C512" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8674,10 +8664,10 @@
         <v>521</v>
       </c>
       <c r="B513" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C513" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8685,10 +8675,10 @@
         <v>522</v>
       </c>
       <c r="B514" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C514" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8696,10 +8686,10 @@
         <v>523</v>
       </c>
       <c r="B515" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C515" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8707,10 +8697,10 @@
         <v>524</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C516" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8718,10 +8708,10 @@
         <v>525</v>
       </c>
       <c r="B517" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C517" s="8">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8729,10 +8719,10 @@
         <v>526</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C518" s="8">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8740,10 +8730,10 @@
         <v>527</v>
       </c>
       <c r="B519" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C519" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8751,10 +8741,10 @@
         <v>528</v>
       </c>
       <c r="B520" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C520" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8762,10 +8752,10 @@
         <v>529</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C521" s="8">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8773,7 +8763,7 @@
         <v>530</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C522" s="8">
         <v>31</v>
@@ -8784,10 +8774,10 @@
         <v>531</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C523" s="8">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8795,10 +8785,10 @@
         <v>532</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C524" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8806,10 +8796,10 @@
         <v>533</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C525" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8817,10 +8807,10 @@
         <v>534</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C526" s="8">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8828,10 +8818,10 @@
         <v>535</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C527" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8839,10 +8829,10 @@
         <v>536</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C528" s="8">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8850,10 +8840,10 @@
         <v>537</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C529" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8861,10 +8851,10 @@
         <v>538</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C530" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8872,10 +8862,10 @@
         <v>539</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C531" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8883,10 +8873,10 @@
         <v>540</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C532" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8894,7 +8884,7 @@
         <v>541</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C533" s="8">
         <v>22</v>
@@ -8905,10 +8895,10 @@
         <v>542</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C534" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8916,10 +8906,10 @@
         <v>543</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C535" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8927,10 +8917,10 @@
         <v>544</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C536" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8938,10 +8928,10 @@
         <v>545</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C537" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8949,10 +8939,10 @@
         <v>546</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C538" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8960,10 +8950,10 @@
         <v>547</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C539" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8971,10 +8961,10 @@
         <v>548</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C540" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -8982,37 +8972,23 @@
         <v>549</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C541" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A542" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B542" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C542" s="8">
-        <v>20</v>
-      </c>
+      <c r="A542"/>
+      <c r="B542"/>
+      <c r="C542"/>
     </row>
     <row r="543" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543"/>
       <c r="B543"/>
       <c r="C543"/>
     </row>
-    <row r="544" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A544"/>
-      <c r="B544"/>
-      <c r="C544"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
